--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_05.08.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3640 +505,4340 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731409070.0075867</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731409071.247782</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731409070.0075867.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731409071.247782.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.199999999999989</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731409072.1173244</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731409074.8101368</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731409072.1173244.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731409074.8101368.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.93</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.07</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731409077.165898</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731409077.165898.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731409077.165898.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.66</v>
       </c>
-      <c r="J5" t="n">
-        <v>277.66</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.970000000000027</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731409080.9692028</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731409083.375501</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731409080.9692028.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731409083.375501.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.14</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.98</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1599999999999824</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731409084.5994203</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731409085.547297</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731409084.5994203.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731409085.547297.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.27</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.91</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731409087.8766925</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731409087.8766925.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731409087.8766925.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.86</v>
       </c>
-      <c r="J8" t="n">
-        <v>127.86</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731409091.1331456</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731409091.3574162</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409091.1331456.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409091.3574162.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6407</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6423</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731409091.886172</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731409093.3383737</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409091.886172.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409093.3383737.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6398</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>28.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731409094.0829933</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731409095.4235504</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409094.0829933.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409095.4235504.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6432.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731409095.6436338</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731409096.9693267</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409095.6436338.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731409096.9693267.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6445.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6436</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731409097.166449</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731409097.166449.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731409097.166449.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>6425.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731409101.2596939</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731409102.5548682</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409101.2596939.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409102.5548682.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>496.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>496.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731409103.1623626</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731409104.2429993</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409103.1623626.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409104.2429993.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>497.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>496.95</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731409104.420852</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731409104.7052398</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409104.420852.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409104.7052398.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>496.9</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>497.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731409104.822331</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731409105.6365764</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409104.822331.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731409105.6365764.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>497.95</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>497.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731409105.9918902</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731409105.9918902.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731409105.9918902.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>496.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-3.700000000000045</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731409108.9837217</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731409111.4743152</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731409108.9837217.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731409111.4743152.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>223.91</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>224.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731409112.0732353</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731409113.406977</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731409112.0732353.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731409113.406977.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.78</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>224.71</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731409115.42781</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731409115.42781.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731409115.42781.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731409117.0328104</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731409118.109194</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409117.0328104.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409118.109194.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1006.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731409119.0162091</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731409120.3668187</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409119.0162091.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409120.3668187.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1002.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.199999999999932</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731409120.9642072</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731409122.2163053</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409120.9642072.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731409122.2163053.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1008</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1007.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731409123.9221048</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731409123.9221048.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731409123.9221048.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1006.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>1006.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.800000000000068</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731409128.7376747</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731409129.601239</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731409128.7376747.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731409129.601239.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.922</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>11.926</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731409129.979029</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731409130.1359098</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731409129.979029.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731409130.1359098.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.927</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.924</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731409130.5364747</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731409130.5364747.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731409130.5364747.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.927</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.927</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731409133.0416632</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731409133.7957578</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409133.0416632.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409133.7957578.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>124.22</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>124.14</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731409134.8539603</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731409138.569094</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409134.8539603.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409138.569094.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.34</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>124.44</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731409138.872825</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731409139.104558</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409138.872825.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731409139.104558.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>124.3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.42</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731409139.9835908</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731409139.9835908.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731409139.9835908.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.18</v>
       </c>
-      <c r="J32" t="n">
-        <v>124.18</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731409140.7202117</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731409140.9478612</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409140.7202117.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409140.9478612.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>161.44</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731409143.153926</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731409144.9174635</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409143.153926.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409144.9174635.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>160.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>160.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731409145.2761574</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731409147.2387946</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409145.2761574.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731409147.2387946.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>160.94</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>160.86</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731409147.8228974</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731409147.8228974.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731409147.8228974.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>160.58</v>
       </c>
-      <c r="J36" t="n">
-        <v>160.58</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731409151.3158863</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731409153.4715495</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731409151.3158863.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731409153.4715495.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>48.93</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>49.175</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2449999999999974</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731409155.1518993</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731409155.649613</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731409155.1518993.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731409155.649613.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>49.235</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>49.16</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731409155.9560905</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731409155.9560905.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731409155.9560905.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>49.16</v>
       </c>
-      <c r="J39" t="n">
-        <v>49.16</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.3149999999999977</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731409160.1878605</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731409160.5730479</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409160.1878605.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409160.5730479.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1380.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1382.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731409160.8417904</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731409162.7356894</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409160.8417904.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409162.7356894.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731409163.7584524</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731409165.275778</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409163.7584524.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409165.275778.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1379.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1379.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731409165.9464576</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731409166.1823575</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409165.9464576.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731409166.1823575.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1378.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731409166.7119908</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731409166.7119908.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731409166.7119908.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1376.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>1376.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731409168.8221853</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731409169.393291</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409168.8221853.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409169.393291.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.08</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731409170.4892826</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731409170.5367494</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409170.4892826.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409170.5367494.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.05</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.13</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731409170.889345</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731409171.7782116</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409170.889345.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409171.7782116.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>58.97</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.39</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731409172.3535502</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731409173.7994637</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409172.3535502.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731409173.7994637.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.55</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731409176.314111</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731409176.314111.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731409176.314111.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>59.53</v>
       </c>
-      <c r="J49" t="n">
-        <v>59.53</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731409178.50895</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731409180.5510743</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731409178.50895.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731409180.5510743.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>95.98999999999999</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>96.13</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731409181.637402</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731409181.637402.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731409181.637402.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>96.04000000000001</v>
       </c>
-      <c r="J51" t="n">
-        <v>96.04000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.4100000000000108</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731409184.9036014</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731409185.4734664</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409184.9036014.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409185.4734664.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>55.7</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>56.01</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731409185.5385678</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731409185.6996608</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409185.5385678.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409185.6996608.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.05</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>55.93</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731409185.982073</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731409187.1302176</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409185.982073.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731409187.1302176.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>55.7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.18</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.4799999999999969</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731409191.570039</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731409191.570039.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731409191.570039.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.02</v>
       </c>
-      <c r="J55" t="n">
-        <v>56.02</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731409193.5830529</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731409194.1337638</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409193.5830529.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409194.1337638.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>139.36</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>140.18</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731409195.0290918</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731409196.335119</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409195.0290918.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409196.335119.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>139.42</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>141.86</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>2.440000000000026</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731409196.929351</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731409197.6834295</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409196.929351.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731409197.6834295.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>142.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>142.12</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731409199.874807</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731409199.874807.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731409199.874807.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>141.76</v>
       </c>
-      <c r="J59" t="n">
-        <v>141.76</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>141.34</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731409202.3764637</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731409205.0037076</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409202.3764637.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409205.0037076.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>20.002</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.845</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.157</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731409205.9640927</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731409206.753544</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409205.9640927.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409206.753544.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.93</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.863</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.06700000000000017</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731409207.5964081</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731409208.8060477</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409207.5964081.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409208.8060477.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.96</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.907</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.05300000000000082</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731409208.9062028</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731409209.418558</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409208.9062028.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731409209.418558.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.875</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.898</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.02299999999999969</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731409209.8301678</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731409209.8301678.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731409209.8301678.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.791</v>
       </c>
-      <c r="J64" t="n">
-        <v>19.791</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731409215.191509</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731409217.4794106</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731409215.191509.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731409217.4794106.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>659.25</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>660.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-1.350000000000023</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731409218.7257705</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731409218.7257705.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731409218.7257705.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>658.8</v>
       </c>
-      <c r="J66" t="n">
-        <v>658.8</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
+      <c r="L66" t="n">
+        <v>657</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731409222.3134766</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731409222.9496598</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731409222.3134766.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731409222.9496598.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>155.87</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>155.31</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731409224.2967649</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731409224.2967649.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731409224.2967649.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>155.01</v>
       </c>
-      <c r="J68" t="n">
-        <v>155.01</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
+      <c r="L68" t="n">
+        <v>153.97</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-1.039999999999992</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731409225.7799008</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731409226.470276</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409225.7799008.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409226.470276.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.09584000000000001</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.09546</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.0003800000000000053</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731409227.5319479</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731409229.105456</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409227.5319479.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409229.105456.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>0.09542</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.09488000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.0005399999999999988</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731409230.1298132</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731409232.7641978</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409230.1298132.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731409232.7641978.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.09522000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.09544000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.000219999999999998</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731409232.9764009</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731409232.9764009.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731409232.9764009.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.095</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731409234.2861154</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731409235.3227272</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409234.2861154.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409235.3227272.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>95.94</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>95.45999999999999</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731409235.9963083</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731409235.9963083.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731409235.9963083.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>95.38</v>
       </c>
-      <c r="J74" t="n">
-        <v>95.38</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
+      <c r="L74" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.6499999999999915</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731409240.4665594</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731409242.3278162</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409240.4665594.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409242.3278162.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2893.35</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2897.3</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3.950000000000273</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731409243.1943226</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731409245.7970161</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409243.1943226.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409245.7970161.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2903.6</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2904</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731409246.3122282</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731409246.3122282.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731409246.3122282.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2898.6</v>
       </c>
-      <c r="J77" t="n">
-        <v>2898.6</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-10.59999999999991</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731409248.0179245</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731409248.9020119</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409248.0179245.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409248.9020119.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>11.884</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>11.9</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731409249.41191</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731409249.41191.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731409249.41191.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>11.899</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.899</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
+      <c r="L79" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.06100000000000172</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,6 +4881,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4174,13 +4899,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01399999999999935</v>
+        <v>-0.04400000000000048</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002799999999999869</v>
+        <v>-0.008800000000000096</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1999999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -4190,13 +4921,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>5.8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -4206,13 +4943,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7999999999999545</v>
+        <v>-0.2000000000000455</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1599999999999909</v>
+        <v>-0.0400000000000091</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -4222,13 +4965,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.449999999999989</v>
+        <v>-2.250000000000057</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2899999999999977</v>
+        <v>-0.4500000000000114</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="6">
@@ -4238,13 +4987,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6700000000000088</v>
+        <v>0.5200000000000102</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1340000000000018</v>
+        <v>0.104000000000002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -4254,13 +5009,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.54000000000002</v>
+        <v>3.120000000000033</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8850000000000051</v>
+        <v>0.7800000000000082</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4270,13 +5031,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3999999999999773</v>
+        <v>-1.400000000000091</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09999999999999432</v>
+        <v>-0.3500000000000227</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9">
@@ -4286,13 +5053,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9199999999999591</v>
+        <v>0.8999999999999488</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2299999999999898</v>
+        <v>0.2249999999999872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -4302,13 +5075,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9099999999999895</v>
+        <v>0.8499999999999872</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2274999999999974</v>
+        <v>0.2124999999999968</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
@@ -4318,13 +5097,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05999999999998806</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01499999999999702</v>
+        <v>-0.02499999999999858</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12">
@@ -4334,13 +5119,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003799999999999915</v>
+        <v>-0.0003399999999999931</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.499999999999786e-05</v>
+        <v>-8.499999999999827e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="13">
@@ -4350,13 +5141,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3599999999999852</v>
+        <v>-0.4500000000000171</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1199999999999951</v>
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4366,13 +5163,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.550000000000182</v>
+        <v>-7.049999999999727</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.183333333333394</v>
+        <v>-2.349999999999909</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -4382,13 +5185,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2000000000000313</v>
+        <v>-0.1799999999999642</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06666666666667709</v>
+        <v>-0.05999999999998806</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16">
@@ -4398,13 +5207,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006999999999999673</v>
+        <v>0.005999999999998451</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002333333333333224</v>
+        <v>0.001999999999999484</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
@@ -4414,13 +5229,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.339999999999975</v>
+        <v>-0.6300000000000523</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4466666666666583</v>
+        <v>-0.2100000000000174</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.2300000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
@@ -4430,13 +5251,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1066666666666668</v>
+        <v>0.001666666666667519</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4446,13 +5273,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.350000000000023</v>
+        <v>-3.149999999999977</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6750000000000114</v>
+        <v>-1.574999999999989</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="20">
@@ -4462,13 +5295,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.5500000000000114</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.2750000000000057</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="21">
@@ -4478,13 +5317,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5600000000000023</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2800000000000011</v>
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="22">
@@ -4494,13 +5339,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01600000000000001</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008000000000000007</v>
+        <v>-0.02250000000000085</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="23">
@@ -4510,13 +5361,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.480000000000004</v>
+        <v>-0.1699999999999875</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.240000000000002</v>
+        <v>-0.08499999999999375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="24">
@@ -4532,6 +5389,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
